--- a/programs/pipelining/pipeliningstructuralhazardloadinstructions.xlsx
+++ b/programs/pipelining/pipeliningstructuralhazardloadinstructions.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vacla\Projects\cpu\programs\pipelining\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DE6CA9D-59D0-42E5-B440-90B88581B392}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06FCCF94-9F17-46C1-B090-1471BEDE6FD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E410B2C1-F054-41C4-A96D-F1120FBD95E0}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{E410B2C1-F054-41C4-A96D-F1120FBD95E0}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Code" sheetId="1" r:id="rId1"/>
+    <sheet name="Pipelining" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="39">
   <si>
     <t>Hex</t>
   </si>
@@ -139,6 +140,18 @@
   </si>
   <si>
     <t>LOAD R3, [R0, #2]</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>E1</t>
+  </si>
+  <si>
+    <t>E2</t>
+  </si>
+  <si>
+    <t>ST</t>
   </si>
 </sst>
 </file>
@@ -522,8 +535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8E17FB6-AC76-4C3E-BEFA-6AB3607784FD}">
   <dimension ref="A1:S29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="S10" sqref="S10"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1072,6 +1085,16 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="M4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="I5:R5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="K6:P6"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="K2:M2"/>
@@ -1081,19 +1104,104 @@
     <mergeCell ref="K3:N3"/>
     <mergeCell ref="O3:P3"/>
     <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="K6:P6"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="M4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="I5:R5"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B643E61-EA99-4AA0-9940-77296F7B3DEF}">
+  <dimension ref="A1:K4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="21.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" t="s">
+        <v>36</v>
+      </c>
+      <c r="K4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/programs/pipelining/pipeliningstructuralhazardloadinstructions.xlsx
+++ b/programs/pipelining/pipeliningstructuralhazardloadinstructions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vacla\Projects\cpu\programs\pipelining\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06FCCF94-9F17-46C1-B090-1471BEDE6FD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81205788-35C5-4F02-B8B9-4485364E7288}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{E410B2C1-F054-41C4-A96D-F1120FBD95E0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E410B2C1-F054-41C4-A96D-F1120FBD95E0}"/>
   </bookViews>
   <sheets>
     <sheet name="Code" sheetId="1" r:id="rId1"/>
@@ -136,12 +136,6 @@
     <t>LOAD R1, [R0]</t>
   </si>
   <si>
-    <t>LOAD R2, [R0, #1]</t>
-  </si>
-  <si>
-    <t>LOAD R3, [R0, #2]</t>
-  </si>
-  <si>
     <t>F</t>
   </si>
   <si>
@@ -152,6 +146,12 @@
   </si>
   <si>
     <t>ST</t>
+  </si>
+  <si>
+    <t>LOAD R2, [R0], #1</t>
+  </si>
+  <si>
+    <t>LOAD R3, [R0], #2</t>
   </si>
 </sst>
 </file>
@@ -535,8 +535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8E17FB6-AC76-4C3E-BEFA-6AB3607784FD}">
   <dimension ref="A1:S29"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:B11"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -853,7 +853,7 @@
         <v>24</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C9" s="2">
         <v>0</v>
@@ -913,7 +913,7 @@
         <v>25</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C10" s="2">
         <v>0</v>
@@ -1085,16 +1085,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="M4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="I5:R5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="K6:P6"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="K2:M2"/>
@@ -1104,6 +1094,16 @@
     <mergeCell ref="K3:N3"/>
     <mergeCell ref="O3:P3"/>
     <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="K6:P6"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="M4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="I5:R5"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1115,8 +1115,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B643E61-EA99-4AA0-9940-77296F7B3DEF}">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B2:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1132,13 +1132,13 @@
         <v>32</v>
       </c>
       <c r="C1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" t="s">
         <v>35</v>
-      </c>
-      <c r="D1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -1146,19 +1146,19 @@
         <v>24</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" t="s">
         <v>33</v>
       </c>
-      <c r="D2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" t="s">
         <v>35</v>
-      </c>
-      <c r="F2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -1166,19 +1166,19 @@
         <v>25</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" t="s">
         <v>34</v>
       </c>
-      <c r="F3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="I3" t="s">
         <v>35</v>
-      </c>
-      <c r="H3" t="s">
-        <v>36</v>
-      </c>
-      <c r="I3" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -1189,16 +1189,16 @@
         <v>31</v>
       </c>
       <c r="H4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4" t="s">
         <v>35</v>
-      </c>
-      <c r="J4" t="s">
-        <v>36</v>
-      </c>
-      <c r="K4" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>
